--- a/biology/Médecine/Échelle_Monoyer/Échelle_Monoyer.xlsx
+++ b/biology/Médecine/Échelle_Monoyer/Échelle_Monoyer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89chelle_Monoyer</t>
+          <t>Échelle_Monoyer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les échelles Monoyer sont des tests optométriques, c’est-à-dire servant à déterminer l’acuité visuelle en ophtalmologie, inventés par Ferdinand Monoyer.
 Il s’agit de planches, les lettres de chaque ligne ont la même taille et la taille croît lorsque l’on descend.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89chelle_Monoyer</t>
+          <t>Échelle_Monoyer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,14 @@
           <t>Choix des lettres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe deux échelles, qui utilisent toutes les deux les lettres capitales de l’alphabet latin :
 le test pour la vision à 3 m, qui se termine par NXV ;
 le test pour la vision à 5 m, qui se termine par ZU.
-On peut remarquer que sur le test pour la vision à cinq mètres se terminant par ZU, le nom de son créateur est astucieusement caché : en effet, les premières et dernières lettres des neuf premières lignes lues verticalement de bas en haut forment le nom de Ferdinand Monoyer : on lit à gauche, « Monoyer » et « DM » pour Docteur en Médecine, et à droite, « Ferdinand »[1].
+On peut remarquer que sur le test pour la vision à cinq mètres se terminant par ZU, le nom de son créateur est astucieusement caché : en effet, les premières et dernières lettres des neuf premières lignes lues verticalement de bas en haut forment le nom de Ferdinand Monoyer : on lit à gauche, « Monoyer » et « DM » pour Docteur en Médecine, et à droite, « Ferdinand ».
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89chelle_Monoyer</t>
+          <t>Échelle_Monoyer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Dimension des lettres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les dimensions des lettres sont telles qu'elles mesurent 5 fois la distance de discrimination correspondant à l'acuité visuelle mesurée.
 Elle est définie par :
